--- a/medicine/Enfance/Pauline_Pinson/Pauline_Pinson.xlsx
+++ b/medicine/Enfance/Pauline_Pinson/Pauline_Pinson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pauline Pinson est une réalisatrice de films d'animation née le 29 juin 1979 en région parisienne. Elle est également scénariste et auteure de livres pour la jeunesse.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle étudie l'illustration, à l’école des Arts Décoratifs de Strasbourg, pendant 3 ans. Elle se spécialise ensuite dans le dessin animé à l’école de la Poudrière à Valence. Elle y réalise plusieurs courts-métrages. 
-En 2004 elle écrit et réalise avec Magali Le Huche et Marion Puech un court métrage d'animation Vivre avec même si c'est dur. Il reçoit la Mention Spéciale du Jury au Festival international du court métrage de Clermont-Ferrand en 2006[1].
-Depuis 2006, elle est scénariste pour la télévision et vit à Paris. Elle écrit également des livres pour la jeunesse et continue de réaliser des films d'animation [2],[3]. 
+En 2004 elle écrit et réalise avec Magali Le Huche et Marion Puech un court métrage d'animation Vivre avec même si c'est dur. Il reçoit la Mention Spéciale du Jury au Festival international du court métrage de Clermont-Ferrand en 2006.
+Depuis 2006, elle est scénariste pour la télévision et vit à Paris. Elle écrit également des livres pour la jeunesse et continue de réaliser des films d'animation ,. 
 </t>
         </is>
       </c>
@@ -544,20 +558,125 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Pauline Pinson a participé a de nombreux projets [4],[5],[6],[7],[8].
-Réalisatrice
-Vivre avec même si c'est dur[1], écrit et réalisé avec Magali Le Huche et Marion Puech, 2004, 7 minutes 30.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pauline Pinson a participé a de nombreux projets .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pauline_Pinson</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pauline_Pinson</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Réalisatrice</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Vivre avec même si c'est dur, écrit et réalisé avec Magali Le Huche et Marion Puech, 2004, 7 minutes 30.
 Migration assistée, 2010
 Michel (également scénariste), 2014
 Los Dias de Los Muertos, 2017
-Jean-Michel Super Caribou, 2020
-Scénariste
-Michel, 2011
-Jean-Michel Super Caribou, 2020
-Auteure jeunesse
-Viking Girl (ou comment l'Eurovision a changé ma vie), roman publié chez Actes Sud Junior 2022
+Jean-Michel Super Caribou, 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pauline_Pinson</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pauline_Pinson</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Scénariste</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Michel, 2011
+Jean-Michel Super Caribou, 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pauline_Pinson</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pauline_Pinson</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Auteure jeunesse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Viking Girl (ou comment l'Eurovision a changé ma vie), roman publié chez Actes Sud Junior 2022
 Bienvenue à Kokoloa, Actes Sud junior 2022 co-écrit avec Ivan Rabbiosi et illustré par Dewi Noiry
 Mouton 56, Glénat, 2010
 Série Michel, avec Dewi Noiry et Ivan Rabbiosi, BD Kids
@@ -575,33 +694,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Pauline_Pinson</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Pauline_Pinson</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Mention Spéciale du Jury au Festival international du court métrage de Clermont-Ferrand 2006[1], pour Vivre avec même si c'est dur réalisé avec Magali Le Huche et Marion Puech.</t>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Mention Spéciale du Jury au Festival international du court métrage de Clermont-Ferrand 2006, pour Vivre avec même si c'est dur réalisé avec Magali Le Huche et Marion Puech.</t>
         </is>
       </c>
     </row>
